--- a/2LabsToGo-Eco-Hardware/Material-Lists/DigiKey-basket.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/DigiKey-basket.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Coworkers\Cande\Paper_OCLab4\Supporting_information\BOM-list\Baskets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschwack\GitHub\2LabsToGo-Eco\2LabsToGo-Eco-Hardware\Material-Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="1305" windowWidth="18735" windowHeight="11055" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>495-2143-ND</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>nebulizer</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Raspberry Pi GPIO</t>
+  </si>
+  <si>
+    <t>Status LED board</t>
   </si>
 </sst>
 </file>
@@ -339,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,9 +367,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,24 +651,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,10 +688,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -704,15 +713,18 @@
       <c r="F2">
         <v>2.61</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
         <f>F2*A2</f>
         <v>5.22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -731,15 +743,18 @@
       <c r="F3">
         <v>0.33</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
         <f>F3*A3</f>
         <v>5.28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -758,11 +773,14 @@
       <c r="F4">
         <v>40.42</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>40.42</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -781,11 +799,14 @@
       <c r="F5">
         <v>6.36</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
         <v>25.44</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -804,11 +825,14 @@
       <c r="F6">
         <v>7.52</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>15.04</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -827,14 +851,17 @@
       <c r="F7">
         <v>0.81</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
         <f>F7*A7</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -853,14 +880,17 @@
       <c r="F8">
         <v>10.050000000000001</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:G26" si="0">F8*A8</f>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H26" si="0">F8*A8</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="2"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -879,14 +909,17 @@
       <c r="F9">
         <v>5.98</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>5.98</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -905,16 +938,19 @@
       <c r="F10">
         <v>4.71</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>4.71</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -933,19 +969,22 @@
       <c r="F11">
         <v>2.39</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G15" si="1">F11*A11</f>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H15" si="1">F11*A11</f>
         <v>2.39</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -964,16 +1003,19 @@
       <c r="F12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>5.45</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -992,16 +1034,19 @@
       <c r="F13">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1020,16 +1065,19 @@
       <c r="F14">
         <v>2.79</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1048,16 +1096,19 @@
       <c r="F15">
         <v>2.93</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>2.93</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1076,16 +1127,19 @@
       <c r="F16">
         <v>0.69</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1104,16 +1158,19 @@
       <c r="F17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1132,14 +1189,19 @@
       <c r="F18">
         <v>0.09</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1158,14 +1220,17 @@
       <c r="F19">
         <v>0.25</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19" s="10"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1184,14 +1249,17 @@
       <c r="F20">
         <v>5.49</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
         <v>5.49</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20" s="2"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -1210,16 +1278,19 @@
       <c r="F21">
         <v>0.43</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1238,16 +1309,19 @@
       <c r="F22">
         <v>0.43</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1266,14 +1340,17 @@
       <c r="F23">
         <v>0.17</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23" s="2"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1292,16 +1369,22 @@
       <c r="F24">
         <v>14.94</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>14.94</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1320,16 +1403,22 @@
       <c r="F25">
         <v>9.91</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>9.91</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1348,32 +1437,37 @@
       <c r="F26">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" s="9"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="F27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="5">
-        <f>SUM(G2:G26)</f>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5">
+        <f>SUM(H2:H26)</f>
         <v>176.26000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="F28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="5">
-        <f>G27*1.19</f>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5">
+        <f>H27*1.19</f>
         <v>209.74940000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
@@ -1382,9 +1476,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H17:H18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
